--- a/TIRT Storytelling.xlsx
+++ b/TIRT Storytelling.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Muriel Rossi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D7D54FD-860E-465D-8223-EAC3D9CAB7FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C9639E4-E795-4F35-935C-B15EC6650FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1515" yWindow="1515" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="246">
   <si>
     <t>Test Incident Report</t>
   </si>
@@ -765,12 +765,6 @@
   </si>
   <si>
     <t>TI_2.6_01</t>
-  </si>
-  <si>
-    <t>TC_2.7_01</t>
-  </si>
-  <si>
-    <t>TI_2.7_01</t>
   </si>
   <si>
     <t>TI_2.6_03</t>
@@ -1425,8 +1419,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{3B208388-1782-4575-ABDE-C1D308859397}" name="Tabella15" displayName="Tabella15" ref="A2:E25" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
-  <autoFilter ref="A2:E25" xr:uid="{95EEB317-0E4D-459B-83C0-83CF8CE2AAA2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{3B208388-1782-4575-ABDE-C1D308859397}" name="Tabella15" displayName="Tabella15" ref="A2:E24" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="A2:E24" xr:uid="{95EEB317-0E4D-459B-83C0-83CF8CE2AAA2}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{0B4C5631-9245-4E5C-95C7-23D61082277E}" name="Test Case ID" dataDxfId="15"/>
     <tableColumn id="2" xr3:uid="{BD595F6F-BD03-44E8-BFCD-BF82792B9D6D}" name="Test Inciden ID" dataDxfId="14"/>
@@ -1443,10 +1437,10 @@
   <autoFilter ref="G2:I3" xr:uid="{648BC664-1137-456D-91C3-D630DB87760A}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{03083C80-2BFE-46F2-8948-8E88B789C1C3}" name="Test Passati" dataDxfId="8">
-      <calculatedColumnFormula>COUNTIF(E3:E25, "Passed")</calculatedColumnFormula>
+      <calculatedColumnFormula>COUNTIF(E3:E24, "Passed")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{94405C25-B1A3-467B-87F7-73EDE6BC3981}" name="Test non passati" dataDxfId="7">
-      <calculatedColumnFormula>COUNTIF(E3:E25, "Not Passed")</calculatedColumnFormula>
+      <calculatedColumnFormula>COUNTIF(E3:E24, "Not Passed")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{6FD89690-BF34-4559-BEFC-926507438143}" name="Note" dataDxfId="6"/>
   </tableColumns>
@@ -7233,10 +7227,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC01D29D-69F7-4B9B-B2E8-9CA1D5AA8CF3}">
-  <dimension ref="A1:CE33"/>
+  <dimension ref="A1:CE32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7384,11 +7378,11 @@
         <v>13</v>
       </c>
       <c r="G3" s="2">
-        <f>COUNTIF(E3:E25, "Passed")</f>
-        <v>23</v>
+        <f>COUNTIF(E3:E24, "Passed")</f>
+        <v>22</v>
       </c>
       <c r="H3" s="2">
-        <f>COUNTIF(E3:E25, "Not Passed")</f>
+        <f>COUNTIF(E3:E24, "Not Passed")</f>
         <v>0</v>
       </c>
       <c r="I3" s="6"/>
@@ -9008,7 +9002,7 @@
         <v>222</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>201</v>
@@ -9075,7 +9069,7 @@
         <v>223</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>201</v>
@@ -9137,72 +9131,11 @@
       <c r="BD24" s="1"/>
       <c r="BE24" s="1"/>
     </row>
-    <row r="25" spans="1:57" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D25" s="9">
-        <v>44571</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>13</v>
-      </c>
+    <row r="25" spans="1:57" x14ac:dyDescent="0.25">
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
-      <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
-      <c r="V25" s="1"/>
-      <c r="W25" s="1"/>
-      <c r="X25" s="1"/>
-      <c r="Y25" s="1"/>
-      <c r="Z25" s="1"/>
-      <c r="AA25" s="1"/>
-      <c r="AB25" s="1"/>
-      <c r="AC25" s="1"/>
-      <c r="AD25" s="1"/>
-      <c r="AE25" s="1"/>
-      <c r="AF25" s="1"/>
-      <c r="AG25" s="1"/>
-      <c r="AH25" s="1"/>
-      <c r="AI25" s="1"/>
-      <c r="AJ25" s="1"/>
-      <c r="AK25" s="1"/>
-      <c r="AL25" s="1"/>
-      <c r="AM25" s="1"/>
-      <c r="AN25" s="1"/>
-      <c r="AO25" s="1"/>
-      <c r="AP25" s="1"/>
-      <c r="AQ25" s="1"/>
-      <c r="AR25" s="1"/>
-      <c r="AS25" s="1"/>
-      <c r="AT25" s="1"/>
-      <c r="AU25" s="1"/>
-      <c r="AV25" s="1"/>
-      <c r="AW25" s="1"/>
-      <c r="AX25" s="1"/>
-      <c r="AY25" s="1"/>
-      <c r="AZ25" s="1"/>
-      <c r="BA25" s="1"/>
-      <c r="BB25" s="1"/>
-      <c r="BC25" s="1"/>
-      <c r="BD25" s="1"/>
-      <c r="BE25" s="1"/>
     </row>
     <row r="26" spans="1:57" x14ac:dyDescent="0.25">
       <c r="H26" s="6"/>
@@ -9246,16 +9179,10 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E25" xr:uid="{71C79793-1FC6-44FC-8C82-D737E6A0A2F9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E24" xr:uid="{71C79793-1FC6-44FC-8C82-D737E6A0A2F9}">
       <formula1>"Passed, Not Passed"</formula1>
     </dataValidation>
   </dataValidations>
